--- a/testsrc/webapp/exceltemplate/sample.xlsx
+++ b/testsrc/webapp/exceltemplate/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\workspaceDFTEST\dftest\testsrc\webapp\exceltemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\workspaceDataforms3\dataforms3tester\testsrc\webapp\exceltemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBBBDFD-B86B-440F-8518-ADB4A183DF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B7E78-06BB-451B-A89B-EEDF8C84A4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="3345" windowWidth="20010" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="4455" windowWidth="11595" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>サンプルレポート</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +58,17 @@
   </si>
   <si>
     <t>${sampleDate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${sampleSelect}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -104,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,16 +138,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -417,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -430,35 +452,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
